--- a/biology/Zoologie/Ceratosoma/Ceratosoma.xlsx
+++ b/biology/Zoologie/Ceratosoma/Ceratosoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceratosoma est un genre de mollusques nudibranches de la famille des Chromodorididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 juin 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 juin 2014) :
 Ceratosoma amoenum (Cheeseman, 1886)
 Ceratosoma bicolor Baba, 1949
 Ceratosoma brevicaudatum Abraham, 1876
@@ -558,7 +572,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adams, A., Reeve, L. 1850. Mollusca. The zoology of the voyage of H.M.S. Samarang; under the command of Captain Sir Edward Belcher C.B., F.R.A.S., F.G.S., during the years 1843-1846. Reeve, Benham &amp; Reeve: London. Parts I-III. [67-68]. (BHL - Ceratosoma p. 67)
 Gosliner, T. 1996. Phylogeny of Ceratosoma (Nudibranchia: Chromodorididae), with descriptions of two new species. Proceedings of the California Academy of Sciences, 49(3): 115–126. (lire en ligne)</t>
